--- a/StructureDefinition-ext-R5-ExampleScenario.pro.ste.ope.response.xlsx
+++ b/StructureDefinition-ext-R5-ExampleScenario.pro.ste.ope.response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
